--- a/datos_fbref/CLASIFICACION_LIGA_Ligue_1.xlsx
+++ b/datos_fbref/CLASIFICACION_LIGA_Ligue_1.xlsx
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>12</v>
@@ -690,26 +690,26 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
         <v>48</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
         <v>40</v>
       </c>
       <c r="K5" t="n">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>W W D L D</t>
+          <t>W D L D L</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -1069,52 +1069,52 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H12" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="J12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>L D W W L</t>
+          <t>L D W D W</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>12232</v>
+        <v>14461</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Sidiki Cherif - 4</t>
+          <t>Romain Del Castillo - 7</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Hervé Koffi</t>
+          <t>Grégoire Coudert</t>
         </is>
       </c>
       <c r="P12" t="inlineStr"/>
@@ -1125,52 +1125,52 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>22</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
         <v>9</v>
       </c>
       <c r="G13" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I13" t="n">
         <v>-5</v>
       </c>
       <c r="J13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K13" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>L L D W D</t>
+          <t>L D W W L</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>14459</v>
+        <v>12232</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Romain Del Castillo - 7</t>
+          <t>Sidiki Cherif - 4</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Grégoire Coudert</t>
+          <t>Hervé Koffi</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
